--- a/xlsx/MasterFile.xlsx
+++ b/xlsx/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F81930D8-7C10-4BA8-A606-5A7F28E7F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F81930D8-7C10-4BA8-A606-5A7F28E7F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFB36EDE-EEC0-4D49-A7A0-380637E1F458}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Market Around Us</t>
   </si>
   <si>
-    <t>/xlsx/Forest.xlsx</t>
+    <t>/xlsx/Forest.xlsx|/images/flashcard/image.jpeg</t>
   </si>
 </sst>
 </file>
@@ -143,6 +143,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,7 +415,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/xlsx/MasterFile.xlsx
+++ b/xlsx/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{F81930D8-7C10-4BA8-A606-5A7F28E7F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFB36EDE-EEC0-4D49-A7A0-380637E1F458}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{F81930D8-7C10-4BA8-A606-5A7F28E7F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B58C5EED-3444-4653-BAE0-165B54F4E8D3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Market Around Us</t>
   </si>
   <si>
-    <t>/xlsx/Forest.xlsx|/images/flashcard/image.jpeg</t>
+    <t>/xlsx/Forest.xlsx|/images/flashcard/image1.jpeg</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/xlsx/MasterFile.xlsx
+++ b/xlsx/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{F81930D8-7C10-4BA8-A606-5A7F28E7F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B58C5EED-3444-4653-BAE0-165B54F4E8D3}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{F81930D8-7C10-4BA8-A606-5A7F28E7F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E07ADD00-9E1A-4F31-80F7-558A947EFE23}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Market Around Us</t>
   </si>
   <si>
-    <t>/xlsx/Forest.xlsx|/images/flashcard/image1.jpeg</t>
+    <t>/xlsx/Forest.xlsx|/images/flashcard/forest.jpg</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/xlsx/MasterFile.xlsx
+++ b/xlsx/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{F81930D8-7C10-4BA8-A606-5A7F28E7F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E07ADD00-9E1A-4F31-80F7-558A947EFE23}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{F81930D8-7C10-4BA8-A606-5A7F28E7F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122248B5-0BE9-4FE3-8A03-A46D11285E70}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Market Around Us</t>
   </si>
   <si>
-    <t>/xlsx/Forest.xlsx|/images/flashcard/forest.jpg</t>
+    <t>/xlsx/Forest.xlsx|/images/flashcard/forest.jpeg</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
